--- a/Algo Hack.xlsx
+++ b/Algo Hack.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Algo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Linear Regression</t>
   </si>
@@ -170,12 +170,281 @@
     <t>To Find the best fit line 
 with squash.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Naïve Baye's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C)</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain Naïve Baye's</t>
+  </si>
+  <si>
+    <t>Explain KNN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KNN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C) (R)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Not to used with large dataset.
+2. If outlier it will not work very well.
+3. Sensitive to Missing Values.</t>
+  </si>
+  <si>
+    <t>Explain Performance Metrics, Accuracy,Precision,Recall And F-Beta Score.</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F-Beta Score</t>
+  </si>
+  <si>
+    <t>Confusion Metrics</t>
+  </si>
+  <si>
+    <t>Used For Balanced dataset</t>
+  </si>
+  <si>
+    <t>Used For Un-balanced dataset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1              0   (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  |  TP      |    FP |
+       -----------------</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  |  FN     |    TN |
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predicted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                 TP + TN
+          -----------------
+          TP+FP+FN+TN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                   TP
+              -----------
+               TP + FP
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                   TP
+              -----------
+               TP + FN
+</t>
+  </si>
+  <si>
+    <t>Recall 
+(On Person)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                            Precision * Recall
+       (1+B^2)   -------------------------
+                       B^2 [ Precision + Recall]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Both FP and FN is Important B = 1
+When FP &gt;&gt;&gt; FN;  B = 0.5
+When FN &gt;&gt;&gt; FP;  B = 2
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +455,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,16 +502,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,17 +805,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" customWidth="1"/>
@@ -525,15 +823,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -544,7 +842,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -554,95 +852,161 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -653,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,6 +1101,30 @@
         <v>37</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Algo Hack.xlsx
+++ b/Algo Hack.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Algo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Linear Regression</t>
   </si>
@@ -439,12 +439,123 @@
 When FN &gt;&gt;&gt; FP;  B = 2
 </t>
   </si>
+  <si>
+    <t>Explain SVM</t>
+  </si>
+  <si>
+    <t>Explain SVR</t>
+  </si>
+  <si>
+    <t>To find the best Hyperplane along with 
+marginalplane such that distance should 
+be maximum.</t>
+  </si>
+  <si>
+    <r>
+      <t>SVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(R)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cost Function and Constraints</t>
+  </si>
+  <si>
+    <t>https://github.com/iamaakashpal/MACHINE-LEARNING-PDF/blob/main/ML%20YT%20PDF%20HINDI/5-SVR%20Algorithms.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Explain work of SVM Kernel</t>
+  </si>
+  <si>
+    <t>Explain Decision Tree</t>
+  </si>
+  <si>
+    <r>
+      <t>Decsion Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(R)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Decsion Tree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C)</t>
+    </r>
+  </si>
+  <si>
+    <t>Entropy { 0 to 1 } Use for Small Dataset
+Gini Impurity { 0 to 0.5 } Use For Large Dataset</t>
+  </si>
+  <si>
+    <t>Uses Techniques as :
+ID3 : Split will be more than 2 'n' split
+CART : Split will be Binary only 2 split</t>
+  </si>
+  <si>
+    <t>Use Entropy and Gini Impurity to Check for Pure split and Impure Split and Information Gain to select Feature</t>
+  </si>
+  <si>
+    <t>https://github.com/iamaakashpal/MACHINE-LEARNING-PDF/blob/main/ML%20YT%20PDF%20HINDI/6%20Decision%20Tree.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +586,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -499,10 +618,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -525,8 +645,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -805,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1131,61 @@
         <v>43</v>
       </c>
     </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C23" r:id="rId1"/>
+    <hyperlink ref="E24" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1017,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,6 +1301,38 @@
         <v>44</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Algo Hack.xlsx
+++ b/Algo Hack.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Algo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>Linear Regression</t>
   </si>
@@ -478,9 +478,6 @@
     <t>Explain work of SVM Kernel</t>
   </si>
   <si>
-    <t>Explain Decision Tree</t>
-  </si>
-  <si>
     <r>
       <t>Decsion Tree</t>
     </r>
@@ -549,6 +546,126 @@
   </si>
   <si>
     <t>https://github.com/iamaakashpal/MACHINE-LEARNING-PDF/blob/main/ML%20YT%20PDF%20HINDI/6%20Decision%20Tree.pdf</t>
+  </si>
+  <si>
+    <t>Overfitting</t>
+  </si>
+  <si>
+    <t>Underfitting</t>
+  </si>
+  <si>
+    <t>Generalized Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Low Bais + High Variance
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+High Bais + High Variance
+High Bais + Low Variance
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Low Bais + Low  Variance
+</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m5E6QxKFYlM</t>
+  </si>
+  <si>
+    <t>Uses Variance Reduction to calculate best split
+and Variance to calculate child node and parent node</t>
+  </si>
+  <si>
+    <t>https://youtu.be/uHq0I_MDVZU</t>
+  </si>
+  <si>
+    <t>Explain Decision Tree Regression.</t>
+  </si>
+  <si>
+    <t>Explain Decision Tree Classification (Entropy, Gini Impurity, Information Gain, Pre-Purning and Post-Purning) .</t>
+  </si>
+  <si>
+    <t>Types of Cross Validation</t>
+  </si>
+  <si>
+    <t>Cross Validation</t>
+  </si>
+  <si>
+    <t>1. Leave One Out Cross Validation</t>
+  </si>
+  <si>
+    <t>2. Hold out Cross Validation</t>
+  </si>
+  <si>
+    <t>3. K-Fold Cross Validation</t>
+  </si>
+  <si>
+    <t>4. Stratified K-Fold Cross Validation</t>
+  </si>
+  <si>
+    <t>5. Time Series Cross Validation</t>
+  </si>
+  <si>
+    <t>1. Leads to Overfitting.
+2. Time Consuming.</t>
+  </si>
+  <si>
+    <t>1. Bad for Imbalanced Dataset.</t>
+  </si>
+  <si>
+    <t>1. Used for Imbalanced Dataset upto some extent.</t>
+  </si>
+  <si>
+    <t>Explain Bagging vs Boosting.</t>
+  </si>
+  <si>
+    <r>
+      <t>Random Forest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Random Forest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(R)</t>
+    </r>
+  </si>
+  <si>
+    <t>Majority Voting Classifier</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>2/3*n in Training and 1/3*n in validation data</t>
+  </si>
+  <si>
+    <t>OOB(Out Of Bag)</t>
+  </si>
+  <si>
+    <t>Explain Random Forest.</t>
   </si>
 </sst>
 </file>
@@ -622,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -642,10 +759,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -927,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,247 +1064,378 @@
     <col min="7" max="7" width="61.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>67</v>
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1"/>
-    <hyperlink ref="E24" r:id="rId2"/>
+    <hyperlink ref="C39" r:id="rId1"/>
+    <hyperlink ref="E41" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C42" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1193,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1581,39 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
